--- a/src/test/test_data/prodajaguma.xlsx
+++ b/src/test/test_data/prodajaguma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\QAprojekti\Automation_projekti\Internet_ProdajaGuma\src\test\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4337DDFB-43FE-44BF-BCD0-329B3A7BD706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C32961-16B4-47C7-BBC8-569B3A4C94EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4350" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{47DA7BBC-4371-411F-99D1-AFF8C5BF69E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{47DA7BBC-4371-411F-99D1-AFF8C5BF69E2}"/>
   </bookViews>
   <sheets>
     <sheet name="automobili" sheetId="1" r:id="rId1"/>
@@ -31,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="106">
   <si>
     <t>tc_id</t>
   </si>
   <si>
-    <t>Test import data for "Sindri" project</t>
-  </si>
-  <si>
     <t>SI_001</t>
   </si>
   <si>
@@ -60,21 +57,12 @@
     <t>SI_005</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>SI_006</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>randomTypeYesNo</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>SI_007</t>
   </si>
   <si>
@@ -87,30 +75,12 @@
     <t>accountRegistered</t>
   </si>
   <si>
-    <t>Thank you for registering with Fake Online Clothing Store.</t>
-  </si>
-  <si>
     <t>invalidMessageCreateAccount</t>
   </si>
   <si>
-    <t>This is a required field.</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
     <t>SI_009</t>
   </si>
   <si>
-    <t>confirmpassword</t>
-  </si>
-  <si>
-    <t>Please enter a valid email address (Ex: johndoe@domain.com).</t>
-  </si>
-  <si>
     <t>SI_010</t>
   </si>
   <si>
@@ -129,51 +99,12 @@
     <t>SI_015</t>
   </si>
   <si>
-    <t>Password Strength: No Password</t>
-  </si>
-  <si>
-    <t>Password Strength: Weak</t>
-  </si>
-  <si>
-    <t>Password Strength: Very Strong</t>
-  </si>
-  <si>
-    <t>strengthpassword</t>
-  </si>
-  <si>
-    <t>Password Strength: Medium</t>
-  </si>
-  <si>
-    <t>Please enter the same value again.</t>
-  </si>
-  <si>
-    <t>both</t>
-  </si>
-  <si>
-    <t>The account sign-in was incorrect or your account is disabled temporarily. Please wait and try again later.</t>
-  </si>
-  <si>
     <t>invalidMessageCreateAccount2</t>
   </si>
   <si>
-    <t>Incorrect CAPTCHA</t>
-  </si>
-  <si>
     <t>emptyCartMessage</t>
   </si>
   <si>
-    <t>You have no items in your shopping cart.</t>
-  </si>
-  <si>
-    <t>Men</t>
-  </si>
-  <si>
-    <t>Gear</t>
-  </si>
-  <si>
-    <t>Training</t>
-  </si>
-  <si>
     <t>menuItemTitle1</t>
   </si>
   <si>
@@ -183,33 +114,9 @@
     <t>menuItemTitle2</t>
   </si>
   <si>
-    <t>TOPS</t>
-  </si>
-  <si>
-    <t>BOTTOMS</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
-    <t>Hoodies &amp; Sweatshirts</t>
-  </si>
-  <si>
-    <t>Jackets</t>
-  </si>
-  <si>
-    <t>Tees</t>
-  </si>
-  <si>
-    <t>Bras &amp; Tanks</t>
-  </si>
-  <si>
-    <t>Pants</t>
-  </si>
-  <si>
-    <t>Shorts</t>
-  </si>
-  <si>
     <t>menuItemTitle2Sub</t>
   </si>
   <si>
@@ -219,9 +126,6 @@
     <t>productType</t>
   </si>
   <si>
-    <t>Tanks</t>
-  </si>
-  <si>
     <t>h</t>
   </si>
   <si>
@@ -231,69 +135,15 @@
     <t>hoverSubItem</t>
   </si>
   <si>
-    <t>Tops</t>
-  </si>
-  <si>
-    <t>Bottoms</t>
-  </si>
-  <si>
-    <t>Bags</t>
-  </si>
-  <si>
-    <t>Fitness Equipment</t>
-  </si>
-  <si>
-    <t>Watches</t>
-  </si>
-  <si>
     <t>hoverSubSubItem</t>
   </si>
   <si>
-    <t>Video Download</t>
-  </si>
-  <si>
     <t>SI_016</t>
   </si>
   <si>
     <t>SI_017</t>
   </si>
   <si>
-    <t>Wool</t>
-  </si>
-  <si>
-    <t>Style</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Full Zip</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Performance Fabric</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Erin Recommends</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>XL</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
     <t>categoryWomen1</t>
   </si>
   <si>
@@ -318,9 +168,6 @@
     <t>categoryItemMen2</t>
   </si>
   <si>
-    <t>Workout Pants</t>
-  </si>
-  <si>
     <t>searchRowNumber1</t>
   </si>
   <si>
@@ -339,255 +186,9 @@
     <t>searchRowNumber2</t>
   </si>
   <si>
-    <t>ulrPage</t>
-  </si>
-  <si>
-    <t>Test import data for "Polovni automobili" project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRZA PRETRAGA </t>
-  </si>
-  <si>
-    <t>subHeaderItemII</t>
-  </si>
-  <si>
-    <t>subHeaderItemI</t>
-  </si>
-  <si>
-    <t>subHeaderItemIII</t>
-  </si>
-  <si>
-    <t>subHeaderItemIV</t>
-  </si>
-  <si>
-    <t>subHeaderItemV</t>
-  </si>
-  <si>
-    <t>subHeaderItemVI</t>
-  </si>
-  <si>
-    <t>subHeaderItemVII</t>
-  </si>
-  <si>
-    <t>subHeaderItemVIII</t>
-  </si>
-  <si>
-    <t>subHeaderItemIX</t>
-  </si>
-  <si>
-    <t>subHeaderItemX</t>
-  </si>
-  <si>
-    <t>subHeaderItemXI</t>
-  </si>
-  <si>
-    <t>Najnoviji oglasi</t>
-  </si>
-  <si>
-    <t>Novi automobili</t>
-  </si>
-  <si>
-    <t>Prvi vlasnik</t>
-  </si>
-  <si>
-    <t>Kupljen nov u Srbiji</t>
-  </si>
-  <si>
-    <t>Automobili na kredit</t>
-  </si>
-  <si>
-    <t>Automobili sa garancijom</t>
-  </si>
-  <si>
-    <t>Pretraga auto usluga</t>
-  </si>
-  <si>
-    <t>Automobili za zamenu</t>
-  </si>
-  <si>
-    <t>Online prodavnica</t>
-  </si>
-  <si>
-    <t>headerItemIb</t>
-  </si>
-  <si>
-    <t>BRZA PRETRAGA</t>
-  </si>
-  <si>
-    <t>headerItemIa</t>
-  </si>
-  <si>
-    <t>Pretraga autoplaceva i kuća</t>
-  </si>
-  <si>
-    <t>Najtraženiji modeli automobila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PONUDA VOZILA </t>
-  </si>
-  <si>
-    <t>PONUDA VOZILA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELOVI I OPREMA </t>
-  </si>
-  <si>
-    <t>DELOVI I OPREMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRODAJEM </t>
-  </si>
-  <si>
-    <t>PRODAJEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUTO OSIGURANJE </t>
-  </si>
-  <si>
-    <t>AUTO OSIGURANJE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAVETI I VESTI </t>
-  </si>
-  <si>
-    <t>SAVETI I VESTI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USLUGE I KREDITI </t>
-  </si>
-  <si>
-    <t>USLUGE I KREDITI</t>
-  </si>
-  <si>
-    <t>PONUDA ZA OGLAšAVANJE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PONUDA ZA OGLAšAVANJE </t>
-  </si>
-  <si>
-    <t>FIRST</t>
-  </si>
-  <si>
-    <t>SECOND</t>
-  </si>
-  <si>
-    <t>numMenuItem</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Plovila</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Radne mašine</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Motori</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Transportna vozila</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Poljoprivredne mašine</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bicikli</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Putnička vozila</t>
-  </si>
-  <si>
-    <t>subHeaderItemIa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'Motori</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Karoserija, šasija, limarija</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elektrika i elektronika</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Motor i mehanički delovi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Oslanjanje i upravljanje</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Enterijer</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Transmisija</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Izduvni sistem</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Klima, grejanje i ventilacija</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kočioni sistemi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Svetla i signalizacija</t>
-  </si>
-  <si>
-    <t>THIRD1</t>
-  </si>
-  <si>
-    <t>THIRD2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Auto oprema</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gume za automobile</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Felne i ratkapne</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Alati za servise</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kompletan auto u delovima</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Delovi za traktore</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Delovi i oprema za motore</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Delovi i oprema za kamione preko 7,5 tona </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Delovi i oprema za kombije </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gume za traktore</t>
-  </si>
-  <si>
     <t>SI_018</t>
   </si>
   <si>
-    <t xml:space="preserve"> Najnoviji oglasi</t>
-  </si>
-  <si>
-    <t>FORTH</t>
-  </si>
-  <si>
-    <t>Postavi oglas</t>
-  </si>
-  <si>
-    <t>Prodaj sopstveno vozilo</t>
-  </si>
-  <si>
-    <t>Oglasi celokupnu ponudu</t>
-  </si>
-  <si>
-    <t>Ubrzaj prodaju</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -633,15 +234,6 @@
     <t>najnovijiOglasi</t>
   </si>
   <si>
-    <t>Automobili</t>
-  </si>
-  <si>
-    <t>Asia Motors</t>
-  </si>
-  <si>
-    <t>BMW</t>
-  </si>
-  <si>
     <t>subItem1</t>
   </si>
   <si>
@@ -675,67 +267,88 @@
     <t>subItem10b</t>
   </si>
   <si>
-    <t>Prijavi se</t>
-  </si>
-  <si>
     <t>stjepanovic11temp@gmail.com</t>
   </si>
   <si>
-    <t>stjepatemp</t>
-  </si>
-  <si>
     <t>verificationType</t>
   </si>
   <si>
-    <t>goodCredentials</t>
-  </si>
-  <si>
-    <t>wrongEmail</t>
-  </si>
-  <si>
     <t>rightEmailEnteredYesNo</t>
   </si>
   <si>
-    <t>xxyyyxxxyyy</t>
-  </si>
-  <si>
-    <t>wrongPassword</t>
-  </si>
-  <si>
     <t>verificationText</t>
   </si>
   <si>
-    <t>Ne postoji nalog sa ovom mail adresom.</t>
-  </si>
-  <si>
-    <t>Proveri da li si dobro uneo e-mail i/ili šifru.</t>
-  </si>
-  <si>
-    <t>xxxxyyyxx</t>
-  </si>
-  <si>
-    <t>Krediti</t>
-  </si>
-  <si>
     <t>randomEmailYesNo</t>
   </si>
   <si>
     <t>secondPassword</t>
   </si>
   <si>
-    <t>Mosorinska92</t>
-  </si>
-  <si>
     <t>buttonColor</t>
   </si>
   <si>
-    <t>background-color</t>
-  </si>
-  <si>
-    <t>rgba(255, 165, 0, 1)</t>
-  </si>
-  <si>
     <t>cssType</t>
+  </si>
+  <si>
+    <t>Test import data for "Internet prodaja guma" project</t>
+  </si>
+  <si>
+    <t>gumepasword</t>
+  </si>
+  <si>
+    <t>expectedMessage</t>
+  </si>
+  <si>
+    <t>validEmailPassword</t>
+  </si>
+  <si>
+    <t>emptyEmail</t>
+  </si>
+  <si>
+    <t>emptyPassword</t>
+  </si>
+  <si>
+    <t>emptyEmailPassword</t>
+  </si>
+  <si>
+    <t>InvalidEmailPassword</t>
+  </si>
+  <si>
+    <t>PETAR KOCIC</t>
+  </si>
+  <si>
+    <t>hjeueyue</t>
+  </si>
+  <si>
+    <t>shsjhsjkh@yah.com</t>
+  </si>
+  <si>
+    <t>Polje email je obavezno.</t>
+  </si>
+  <si>
+    <t>Polje password je obavezno.</t>
+  </si>
+  <si>
+    <t>Podaci ne odgovaraju ni jednom nalogu.</t>
+  </si>
+  <si>
+    <t>emptyEmailPasswordMessage2</t>
+  </si>
+  <si>
+    <t>profileSubItem</t>
+  </si>
+  <si>
+    <t>Odjavi se</t>
+  </si>
+  <si>
+    <t>Profil</t>
+  </si>
+  <si>
+    <t>auth/login</t>
+  </si>
+  <si>
+    <t>urlAddressExtension</t>
   </si>
 </sst>
 </file>
@@ -1294,7 +907,7 @@
   <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,7 +939,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -1360,49 +973,49 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>185</v>
+        <v>52</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>186</v>
+        <v>53</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>187</v>
+        <v>54</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>188</v>
+        <v>55</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>189</v>
+        <v>56</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>190</v>
+        <v>57</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>191</v>
+        <v>58</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>192</v>
+        <v>59</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>193</v>
+        <v>60</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>194</v>
+        <v>61</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>195</v>
+        <v>62</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>196</v>
+        <v>63</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>197</v>
+        <v>64</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>198</v>
+        <v>65</v>
       </c>
       <c r="P3" s="16" t="s">
-        <v>199</v>
+        <v>66</v>
       </c>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
@@ -1413,14 +1026,10 @@
     </row>
     <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>201</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -1443,12 +1052,10 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="10"/>
-      <c r="C5" s="11" t="s">
-        <v>202</v>
-      </c>
+      <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -1471,7 +1078,7 @@
     </row>
     <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="11"/>
@@ -1497,7 +1104,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
@@ -1523,7 +1130,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -1549,7 +1156,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
@@ -1575,7 +1182,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
@@ -1601,7 +1208,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
@@ -1627,7 +1234,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
@@ -1653,7 +1260,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
@@ -1679,7 +1286,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
@@ -1705,7 +1312,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
@@ -1731,7 +1338,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
@@ -1757,7 +1364,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
@@ -1783,7 +1390,7 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="11"/>
@@ -1824,7 +1431,7 @@
   <dimension ref="A1:AM20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AL12" sqref="AL12"/>
+      <selection sqref="A1:AL1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1867,7 +1474,7 @@
   <sheetData>
     <row r="1" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -1916,120 +1523,120 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>203</v>
+        <v>67</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>204</v>
+        <v>68</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>205</v>
+        <v>69</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>206</v>
+        <v>70</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>207</v>
+        <v>71</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>208</v>
+        <v>72</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>209</v>
+        <v>73</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>210</v>
+        <v>74</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>211</v>
+        <v>75</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="U3" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL3" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="U3" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="X3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y3" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA3" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB3" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC3" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD3" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE3" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF3" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG3" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH3" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI3" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ3" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK3" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="AL3" s="7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
@@ -2040,27 +1647,15 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="11" t="s">
-        <v>214</v>
-      </c>
+      <c r="K4" s="11"/>
       <c r="L4" s="11"/>
-      <c r="M4" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>216</v>
-      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
       <c r="O4" s="11"/>
-      <c r="P4" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
-      <c r="R4" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>215</v>
-      </c>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
       <c r="V4" s="11"/>
@@ -2081,9 +1676,9 @@
       <c r="AK4" s="11"/>
       <c r="AL4" s="11"/>
     </row>
-    <row r="5" spans="1:38" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="11"/>
@@ -2094,23 +1689,15 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="11" t="s">
-        <v>227</v>
-      </c>
+      <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="15"/>
-      <c r="P5" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
-      <c r="R5" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="S5" s="15" t="s">
-        <v>224</v>
-      </c>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
       <c r="T5" s="15"/>
       <c r="U5" s="11"/>
       <c r="V5" s="11"/>
@@ -2133,7 +1720,7 @@
     </row>
     <row r="6" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="11"/>
@@ -2146,21 +1733,13 @@
       <c r="J6" s="11"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
-      <c r="M6" s="13" t="s">
-        <v>221</v>
-      </c>
+      <c r="M6" s="13"/>
       <c r="N6" s="11"/>
       <c r="O6" s="15"/>
-      <c r="P6" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="P6" s="15"/>
       <c r="Q6" s="15"/>
-      <c r="R6" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="S6" s="15" t="s">
-        <v>224</v>
-      </c>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
       <c r="T6" s="15"/>
       <c r="U6" s="11"/>
       <c r="V6" s="11"/>
@@ -2181,9 +1760,9 @@
       <c r="AK6" s="11"/>
       <c r="AL6" s="11"/>
     </row>
-    <row r="7" spans="1:38" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
@@ -2196,21 +1775,13 @@
       <c r="J7" s="11"/>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
-      <c r="M7" s="11" t="s">
-        <v>215</v>
-      </c>
+      <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="15"/>
-      <c r="P7" s="15" t="s">
-        <v>11</v>
-      </c>
+      <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
-      <c r="R7" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="S7" s="15" t="s">
-        <v>225</v>
-      </c>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
       <c r="T7" s="15"/>
       <c r="U7" s="11"/>
       <c r="V7" s="11"/>
@@ -2231,9 +1802,9 @@
       <c r="AK7" s="11"/>
       <c r="AL7" s="11"/>
     </row>
-    <row r="8" spans="1:38" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -2246,23 +1817,13 @@
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
-      <c r="M8" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>226</v>
-      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="15"/>
       <c r="O8" s="15"/>
-      <c r="P8" s="15" t="s">
-        <v>11</v>
-      </c>
+      <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
-      <c r="R8" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="S8" s="15" t="s">
-        <v>225</v>
-      </c>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
       <c r="T8" s="15"/>
       <c r="U8" s="11"/>
       <c r="V8" s="15"/>
@@ -2285,7 +1846,7 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
@@ -2299,23 +1860,13 @@
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
-      <c r="N9" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="P9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q9" s="15" t="s">
-        <v>11</v>
-      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
       <c r="R9" s="15"/>
       <c r="S9" s="15"/>
-      <c r="T9" s="15" t="s">
-        <v>233</v>
-      </c>
+      <c r="T9" s="15"/>
       <c r="U9" s="11"/>
       <c r="V9" s="11"/>
       <c r="W9" s="15"/>
@@ -2332,14 +1883,12 @@
       <c r="AH9" s="15"/>
       <c r="AI9" s="15"/>
       <c r="AJ9" s="11"/>
-      <c r="AK9" s="11" t="s">
-        <v>232</v>
-      </c>
+      <c r="AK9" s="11"/>
       <c r="AL9" s="11"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
@@ -2381,7 +1930,7 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
@@ -2423,7 +1972,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
@@ -2465,7 +2014,7 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
@@ -2507,7 +2056,7 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
@@ -2549,7 +2098,7 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
@@ -2591,7 +2140,7 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
@@ -2633,7 +2182,7 @@
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
@@ -2675,7 +2224,7 @@
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -2718,7 +2267,7 @@
     </row>
     <row r="19" spans="1:39" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
@@ -2760,7 +2309,7 @@
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
@@ -2815,7 +2364,7 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2844,7 +2393,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -2876,503 +2425,265 @@
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="L3" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>92</v>
-      </c>
       <c r="R3" s="8" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="T4" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="U4" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="V4" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q5" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="T5" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="U5" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="V5" s="11" t="s">
-        <v>13</v>
-      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
     </row>
     <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>13</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="13" t="s">
-        <v>20</v>
-      </c>
+      <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="R6" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="S6" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="T6" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="U6" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="V6" s="11" t="s">
-        <v>13</v>
-      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>13</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="13" t="s">
-        <v>20</v>
-      </c>
+      <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>44</v>
-      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="11"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="11" t="s">
-        <v>55</v>
-      </c>
+      <c r="N7" s="11"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q7" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="R7" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="S7" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="T7" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="U7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="V7" s="11" t="s">
-        <v>13</v>
-      </c>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>13</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="15" t="s">
-        <v>20</v>
-      </c>
+      <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>44</v>
-      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="11"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="11" t="s">
-        <v>62</v>
-      </c>
+      <c r="N8" s="11"/>
       <c r="O8" s="15"/>
-      <c r="P8" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q8" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="R8" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="S8" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="T8" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U8" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="V8" s="11" t="s">
-        <v>13</v>
-      </c>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>13</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="13" t="s">
-        <v>20</v>
-      </c>
+      <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
-      <c r="H9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>44</v>
-      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="11"/>
       <c r="M9" s="11"/>
-      <c r="N9" s="15" t="s">
-        <v>57</v>
-      </c>
+      <c r="N9" s="15"/>
       <c r="O9" s="11"/>
-      <c r="P9" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q9" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="R9" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="S9" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="T9" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="U9" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="V9" s="11" t="s">
-        <v>13</v>
-      </c>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>13</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B10" s="11"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="15" t="s">
-        <v>20</v>
-      </c>
+      <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>44</v>
-      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="11"/>
       <c r="M10" s="6"/>
-      <c r="N10" s="11" t="s">
-        <v>58</v>
-      </c>
+      <c r="N10" s="11"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
-      <c r="T10" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U10" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="V10" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>25</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>69</v>
-      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
@@ -3381,42 +2692,24 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
-      <c r="T11" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="U11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="V11" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>13</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B12" s="11"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="15" t="s">
-        <v>32</v>
-      </c>
+      <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
-      <c r="H12" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>55</v>
-      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
@@ -3425,42 +2718,24 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
-      <c r="T12" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="U12" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="V12" s="11" t="s">
-        <v>13</v>
-      </c>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>13</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B13" s="11"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="15" t="s">
-        <v>33</v>
-      </c>
+      <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>72</v>
-      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -3469,42 +2744,24 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
-      <c r="T13" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="U13" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="V13" s="11" t="s">
-        <v>13</v>
-      </c>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>13</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B14" s="11"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="15" t="s">
-        <v>36</v>
-      </c>
+      <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
-      <c r="H14" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>57</v>
-      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
@@ -3513,42 +2770,24 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
-      <c r="T14" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U14" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="V14" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>13</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B15" s="11"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="15" t="s">
-        <v>34</v>
-      </c>
+      <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
-      <c r="H15" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>57</v>
-      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
@@ -3557,42 +2796,24 @@
       <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
       <c r="S15" s="19"/>
-      <c r="T15" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="U15" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="V15" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="T15" s="15"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>13</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B16" s="11"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="15" t="s">
-        <v>37</v>
-      </c>
+      <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
-      <c r="H16" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>70</v>
-      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
@@ -3601,48 +2822,24 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
-      <c r="T16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U16" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="V16" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>41</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>62</v>
-      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
@@ -3653,13 +2850,11 @@
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
-      <c r="V17" s="11" t="s">
-        <v>13</v>
-      </c>
+      <c r="V17" s="11"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -3668,15 +2863,9 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>58</v>
-      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
@@ -3687,93 +2876,49 @@
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
-      <c r="V18" s="11" t="s">
-        <v>13</v>
-      </c>
+      <c r="V18" s="11"/>
       <c r="W18" s="6"/>
     </row>
     <row r="19" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>20</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="G19" s="11"/>
       <c r="H19" s="11"/>
-      <c r="I19" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="L19" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M19" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="N19" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="O19" s="11" t="s">
-        <v>51</v>
-      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
-      <c r="T19" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="U19" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="V19" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>13</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B20" s="11"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="15" t="s">
-        <v>34</v>
-      </c>
+      <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
-      <c r="H20" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>58</v>
-      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
@@ -3782,15 +2927,9 @@
       <c r="Q20" s="19"/>
       <c r="R20" s="19"/>
       <c r="S20" s="19"/>
-      <c r="T20" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="U20" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="V20" s="11" t="s">
-        <v>13</v>
-      </c>
+      <c r="T20" s="15"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3806,17 +2945,19 @@
   <dimension ref="A1:AH21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="14.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="15.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="21" style="1" customWidth="1"/>
     <col min="11" max="11" width="24" style="1" customWidth="1"/>
@@ -3843,7 +2984,7 @@
   <sheetData>
     <row r="1" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -3887,56 +3028,36 @@
         <v>0</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="I3" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>115</v>
-      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
@@ -3956,57 +3077,37 @@
     </row>
     <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="C4" s="11" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>124</v>
-      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
       <c r="S4" s="11"/>
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
@@ -4026,43 +3127,29 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="C5" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="D5" s="11" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>131</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F5" s="11"/>
       <c r="G5" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>152</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
@@ -4086,50 +3173,30 @@
     </row>
     <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>156</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>165</v>
-      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
@@ -4150,50 +3217,30 @@
     </row>
     <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>168</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G7" s="11"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q7" s="11" t="s">
-        <v>177</v>
-      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
@@ -4214,34 +3261,26 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" s="11" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>184</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
       <c r="N8" s="6"/>
@@ -4268,17 +3307,21 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="E9" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>137</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -4310,17 +3353,21 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="E10" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>139</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -4352,17 +3399,13 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>141</v>
-      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -4392,19 +3435,15 @@
       <c r="AG11" s="11"/>
       <c r="AH11" s="11"/>
     </row>
-    <row r="12" spans="1:34" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>142</v>
-      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -4436,7 +3475,7 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -4474,7 +3513,7 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -4512,7 +3551,7 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -4550,7 +3589,7 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -4588,7 +3627,7 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -4626,7 +3665,7 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -4664,7 +3703,7 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -4702,7 +3741,7 @@
     </row>
     <row r="20" spans="1:34" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -4740,7 +3779,7 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>

--- a/src/test/test_data/prodajaguma.xlsx
+++ b/src/test/test_data/prodajaguma.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\QAprojekti\Automation_projekti\Internet_ProdajaGuma\src\test\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C32961-16B4-47C7-BBC8-569B3A4C94EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9544FC-2327-4F9D-A115-6E081818FB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{47DA7BBC-4371-411F-99D1-AFF8C5BF69E2}"/>
+    <workbookView xWindow="-4350" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{47DA7BBC-4371-411F-99D1-AFF8C5BF69E2}"/>
   </bookViews>
   <sheets>
-    <sheet name="automobili" sheetId="1" r:id="rId1"/>
-    <sheet name="mojprofil" sheetId="2" r:id="rId2"/>
-    <sheet name="men" sheetId="3" r:id="rId3"/>
-    <sheet name="general" sheetId="4" r:id="rId4"/>
+    <sheet name="gume" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="registration" sheetId="2" r:id="rId3"/>
+    <sheet name="profile" sheetId="3" r:id="rId4"/>
+    <sheet name="general" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">automobili!$A$3:$B$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">gume!$A$3:$E$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="196">
   <si>
     <t>tc_id</t>
   </si>
@@ -60,295 +61,565 @@
     <t>SI_006</t>
   </si>
   <si>
+    <t>SI_007</t>
+  </si>
+  <si>
+    <t>SI_008</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>SI_009</t>
+  </si>
+  <si>
+    <t>SI_010</t>
+  </si>
+  <si>
+    <t>SI_011</t>
+  </si>
+  <si>
+    <t>SI_012</t>
+  </si>
+  <si>
+    <t>SI_013</t>
+  </si>
+  <si>
+    <t>SI_014</t>
+  </si>
+  <si>
+    <t>SI_015</t>
+  </si>
+  <si>
+    <t>SI_016</t>
+  </si>
+  <si>
+    <t>SI_017</t>
+  </si>
+  <si>
+    <t>SI_018</t>
+  </si>
+  <si>
+    <t>stjepanovic11temp@gmail.com</t>
+  </si>
+  <si>
+    <t>verificationType</t>
+  </si>
+  <si>
+    <t>Test import data for "Internet prodaja guma" project</t>
+  </si>
+  <si>
+    <t>gumepasword</t>
+  </si>
+  <si>
+    <t>expectedMessage</t>
+  </si>
+  <si>
+    <t>validEmailPassword</t>
+  </si>
+  <si>
+    <t>emptyEmail</t>
+  </si>
+  <si>
+    <t>emptyPassword</t>
+  </si>
+  <si>
+    <t>emptyEmailPassword</t>
+  </si>
+  <si>
+    <t>InvalidEmailPassword</t>
+  </si>
+  <si>
+    <t>PETAR KOCIC</t>
+  </si>
+  <si>
+    <t>hjeueyue</t>
+  </si>
+  <si>
+    <t>shsjhsjkh@yah.com</t>
+  </si>
+  <si>
+    <t>Polje email je obavezno.</t>
+  </si>
+  <si>
+    <t>Polje password je obavezno.</t>
+  </si>
+  <si>
+    <t>Podaci ne odgovaraju ni jednom nalogu.</t>
+  </si>
+  <si>
+    <t>emptyEmailPasswordMessage2</t>
+  </si>
+  <si>
+    <t>profileSubItem</t>
+  </si>
+  <si>
+    <t>Odjavi se</t>
+  </si>
+  <si>
+    <t>Profil</t>
+  </si>
+  <si>
+    <t>auth/login</t>
+  </si>
+  <si>
+    <t>urlAddressExtension</t>
+  </si>
+  <si>
+    <t>ime</t>
+  </si>
+  <si>
+    <t>prezime</t>
+  </si>
+  <si>
+    <t>pib</t>
+  </si>
+  <si>
+    <t>maticniBroj</t>
+  </si>
+  <si>
+    <t>nazivFirme</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>randomDataYesNo</t>
+  </si>
+  <si>
+    <t>Sasa</t>
+  </si>
+  <si>
+    <t>Stjepanovic</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Fizičko lice</t>
+  </si>
+  <si>
+    <t>Pravno lice</t>
+  </si>
+  <si>
+    <t>Telekom</t>
+  </si>
+  <si>
+    <t>1111111</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>251245684</t>
+  </si>
+  <si>
+    <t>2222222</t>
+  </si>
+  <si>
+    <t>mesto</t>
+  </si>
+  <si>
+    <t>ptt</t>
+  </si>
+  <si>
+    <t>ulica</t>
+  </si>
+  <si>
+    <t>brojUl</t>
+  </si>
+  <si>
+    <t>telefon</t>
+  </si>
+  <si>
+    <t>21000</t>
+  </si>
+  <si>
+    <t>11000</t>
+  </si>
+  <si>
+    <t>Tolstojeva</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>0681254</t>
+  </si>
+  <si>
+    <t>0681212</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Zdravka Celara</t>
+  </si>
+  <si>
+    <t>Beograd-Zvezdara</t>
+  </si>
+  <si>
+    <t>imeEmpty</t>
+  </si>
+  <si>
+    <t>prezimeEmpty</t>
+  </si>
+  <si>
+    <t>nazivFirmeEmpty</t>
+  </si>
+  <si>
+    <t>pibEmpty</t>
+  </si>
+  <si>
+    <t>maticniBrojEmpty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novi Sad </t>
+  </si>
+  <si>
+    <t>passwordConfirm</t>
+  </si>
+  <si>
+    <t>nameUsername</t>
+  </si>
+  <si>
+    <t>gume@yahoo.com</t>
+  </si>
+  <si>
+    <t>gumepasw</t>
+  </si>
+  <si>
+    <t>Petar Jelic</t>
+  </si>
+  <si>
+    <t>wwe</t>
+  </si>
+  <si>
+    <t>expectedMessage2</t>
+  </si>
+  <si>
+    <t>expectedMessage3</t>
+  </si>
+  <si>
+    <t>Polje name je obavezno.</t>
+  </si>
+  <si>
+    <t>Potvrda polja password se ne poklapa.</t>
+  </si>
+  <si>
+    <t>expectedMessage4</t>
+  </si>
+  <si>
+    <t>Format polja email nije validan.</t>
+  </si>
+  <si>
+    <t>Polje password mora sadržati najmanje 6 karaktera.</t>
+  </si>
+  <si>
+    <t>gume</t>
+  </si>
+  <si>
+    <t>unsuccessful</t>
+  </si>
+  <si>
+    <t>gumicenet</t>
+  </si>
+  <si>
     <t>randomTypeYesNo</t>
   </si>
   <si>
-    <t>SI_007</t>
-  </si>
-  <si>
-    <t>SI_008</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>accountRegistered</t>
-  </si>
-  <si>
-    <t>invalidMessageCreateAccount</t>
-  </si>
-  <si>
-    <t>SI_009</t>
-  </si>
-  <si>
-    <t>SI_010</t>
-  </si>
-  <si>
-    <t>SI_011</t>
-  </si>
-  <si>
-    <t>SI_012</t>
-  </si>
-  <si>
-    <t>SI_013</t>
-  </si>
-  <si>
-    <t>SI_014</t>
-  </si>
-  <si>
-    <t>SI_015</t>
-  </si>
-  <si>
-    <t>invalidMessageCreateAccount2</t>
-  </si>
-  <si>
-    <t>emptyCartMessage</t>
-  </si>
-  <si>
-    <t>menuItemTitle1</t>
-  </si>
-  <si>
-    <t>menuItemTitle3</t>
-  </si>
-  <si>
-    <t>menuItemTitle2</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>menuItemTitle2Sub</t>
-  </si>
-  <si>
-    <t>firstPageYesNo</t>
-  </si>
-  <si>
-    <t>productType</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>hoverItem</t>
-  </si>
-  <si>
-    <t>hoverSubItem</t>
-  </si>
-  <si>
-    <t>hoverSubSubItem</t>
-  </si>
-  <si>
-    <t>SI_016</t>
-  </si>
-  <si>
-    <t>SI_017</t>
-  </si>
-  <si>
-    <t>categoryWomen1</t>
-  </si>
-  <si>
-    <t>categoryWomen2</t>
-  </si>
-  <si>
-    <t>categoryItemWomen2</t>
-  </si>
-  <si>
-    <t>categoryItemWomen1</t>
-  </si>
-  <si>
-    <t>categoryMen1</t>
-  </si>
-  <si>
-    <t>categoryMen2</t>
-  </si>
-  <si>
-    <t>categoryItemMen1</t>
-  </si>
-  <si>
-    <t>categoryItemMen2</t>
-  </si>
-  <si>
-    <t>searchRowNumber1</t>
-  </si>
-  <si>
-    <t>searchRowNumber3</t>
-  </si>
-  <si>
-    <t>searchRowNumber4</t>
-  </si>
-  <si>
-    <t>searchRowNumber5</t>
-  </si>
-  <si>
-    <t>searchRowNumber6</t>
-  </si>
-  <si>
-    <t>searchRowNumber2</t>
-  </si>
-  <si>
-    <t>SI_018</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>marka</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>cenaDo</t>
-  </si>
-  <si>
-    <t>godisteOd</t>
-  </si>
-  <si>
-    <t>godisteDo</t>
-  </si>
-  <si>
-    <t>karoserija</t>
-  </si>
-  <si>
-    <t>gorivo</t>
-  </si>
-  <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>polovna_nova_vozila</t>
-  </si>
-  <si>
-    <t>pretraga</t>
-  </si>
-  <si>
-    <t>kredit</t>
-  </si>
-  <si>
-    <t>lizing</t>
-  </si>
-  <si>
-    <t>garancija</t>
-  </si>
-  <si>
-    <t>najnovijiOglasi</t>
-  </si>
-  <si>
-    <t>subItem1</t>
-  </si>
-  <si>
-    <t>subItem2</t>
-  </si>
-  <si>
-    <t>subItem3</t>
-  </si>
-  <si>
-    <t>subItem4</t>
-  </si>
-  <si>
-    <t>subItem5</t>
-  </si>
-  <si>
-    <t>subItem6</t>
-  </si>
-  <si>
-    <t>subItem7</t>
-  </si>
-  <si>
-    <t>subItem8</t>
-  </si>
-  <si>
-    <t>subItem9</t>
-  </si>
-  <si>
-    <t>subItem10a</t>
-  </si>
-  <si>
-    <t>subItem10b</t>
-  </si>
-  <si>
-    <t>stjepanovic11temp@gmail.com</t>
-  </si>
-  <si>
-    <t>verificationType</t>
-  </si>
-  <si>
-    <t>rightEmailEnteredYesNo</t>
-  </si>
-  <si>
-    <t>verificationText</t>
-  </si>
-  <si>
-    <t>randomEmailYesNo</t>
-  </si>
-  <si>
-    <t>secondPassword</t>
-  </si>
-  <si>
-    <t>buttonColor</t>
-  </si>
-  <si>
-    <t>cssType</t>
-  </si>
-  <si>
-    <t>Test import data for "Internet prodaja guma" project</t>
-  </si>
-  <si>
-    <t>gumepasword</t>
-  </si>
-  <si>
-    <t>expectedMessage</t>
-  </si>
-  <si>
-    <t>validEmailPassword</t>
-  </si>
-  <si>
-    <t>emptyEmail</t>
-  </si>
-  <si>
-    <t>emptyPassword</t>
-  </si>
-  <si>
-    <t>emptyEmailPassword</t>
-  </si>
-  <si>
-    <t>InvalidEmailPassword</t>
-  </si>
-  <si>
-    <t>PETAR KOCIC</t>
-  </si>
-  <si>
-    <t>hjeueyue</t>
-  </si>
-  <si>
-    <t>shsjhsjkh@yah.com</t>
-  </si>
-  <si>
-    <t>Polje email je obavezno.</t>
-  </si>
-  <si>
-    <t>Polje password je obavezno.</t>
-  </si>
-  <si>
-    <t>Podaci ne odgovaraju ni jednom nalogu.</t>
-  </si>
-  <si>
-    <t>emptyEmailPasswordMessage2</t>
-  </si>
-  <si>
-    <t>profileSubItem</t>
-  </si>
-  <si>
-    <t>Odjavi se</t>
-  </si>
-  <si>
-    <t>Profil</t>
-  </si>
-  <si>
-    <t>auth/login</t>
-  </si>
-  <si>
-    <t>urlAddressExtension</t>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>Milenko Jukic</t>
+  </si>
+  <si>
+    <t>successful</t>
+  </si>
+  <si>
+    <t>gumetigar</t>
+  </si>
+  <si>
+    <t>vrstaVozila</t>
+  </si>
+  <si>
+    <t>sezona</t>
+  </si>
+  <si>
+    <t>dimenzije</t>
+  </si>
+  <si>
+    <t>Agro program</t>
+  </si>
+  <si>
+    <t>Zimska sezona</t>
+  </si>
+  <si>
+    <t>proizvodjac</t>
+  </si>
+  <si>
+    <t>runflat</t>
+  </si>
+  <si>
+    <t>opterecenje</t>
+  </si>
+  <si>
+    <t>buka</t>
+  </si>
+  <si>
+    <t>indeksBrzine</t>
+  </si>
+  <si>
+    <t>potrosnja</t>
+  </si>
+  <si>
+    <t>prijanjanje</t>
+  </si>
+  <si>
+    <t>menuTitle</t>
+  </si>
+  <si>
+    <t>menuSubTitle</t>
+  </si>
+  <si>
+    <t>Letnje gume</t>
+  </si>
+  <si>
+    <t>actuallTitle</t>
+  </si>
+  <si>
+    <t>Zimske gume</t>
+  </si>
+  <si>
+    <t>Gume za sve sezone</t>
+  </si>
+  <si>
+    <t>menuSubSubTitle</t>
+  </si>
+  <si>
+    <t>Letnje Auto gume</t>
+  </si>
+  <si>
+    <t>Letnje gume za kombi</t>
+  </si>
+  <si>
+    <t>Letnje gume za SUV</t>
+  </si>
+  <si>
+    <t>Letnje gume za skuter</t>
+  </si>
+  <si>
+    <t>Letnje gume za motor</t>
+  </si>
+  <si>
+    <t>Letnje gume za traktor</t>
+  </si>
+  <si>
+    <t>Letnje auto gume</t>
+  </si>
+  <si>
+    <t>Gume za dostavno/minibus vozilo</t>
+  </si>
+  <si>
+    <t>Skuter gume</t>
+  </si>
+  <si>
+    <t>Gume za 4X4 i SUV vozilo</t>
+  </si>
+  <si>
+    <t>Moto gume</t>
+  </si>
+  <si>
+    <t>Agro gume</t>
+  </si>
+  <si>
+    <t>Zimske gume za kombi</t>
+  </si>
+  <si>
+    <t>Zimske gume za SUV</t>
+  </si>
+  <si>
+    <t>Zimske auto gume</t>
+  </si>
+  <si>
+    <t>Posle klinka na link Letnje gume za kombi, ne budu prikazane uopste letnje gume</t>
+  </si>
+  <si>
+    <t>Posle klinka na link Letnje gume za SUV, ne budu prikazane uopste letnje gume</t>
+  </si>
+  <si>
+    <t>Kad je korisnik ulogovan I napuni se korpa, ista se ne irpsazni nakon sto je korisnik izlogovan</t>
+  </si>
+  <si>
+    <t>Gume-&gt; Letnje auto gume trwb da pise a ne Letnje Auto gume</t>
+  </si>
+  <si>
+    <t>Posle klinka na link Gume za sve sezone 4x4 I SUV, ne budu prikazane uopste  gume za sve sezone</t>
+  </si>
+  <si>
+    <t>Auto gume za sve sezone</t>
+  </si>
+  <si>
+    <t>Kombi gume za sve sezone</t>
+  </si>
+  <si>
+    <t>Gume za sve sezone dostavno/minibus vozilo</t>
+  </si>
+  <si>
+    <t>Zimske gume dostavno/minibus vozilo</t>
+  </si>
+  <si>
+    <t>Zimske gume 4X4 i SUV vozilo</t>
+  </si>
+  <si>
+    <t>SUV vozilo</t>
+  </si>
+  <si>
+    <t>Auto gume</t>
+  </si>
+  <si>
+    <t>Gume za kombi</t>
+  </si>
+  <si>
+    <t>Gume za SUV</t>
+  </si>
+  <si>
+    <t>Gume za motor</t>
+  </si>
+  <si>
+    <t>Gume za skuter</t>
+  </si>
+  <si>
+    <t>actuallFiltered1</t>
+  </si>
+  <si>
+    <t>actuallFiltered2</t>
+  </si>
+  <si>
+    <t>actuallFiltered3</t>
+  </si>
+  <si>
+    <t>actuallFiltered4</t>
+  </si>
+  <si>
+    <t>actuallFiltered5</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>AUTO GUME</t>
+  </si>
+  <si>
+    <t>ZIMSKA</t>
+  </si>
+  <si>
+    <t>MIN. CENA: 500</t>
+  </si>
+  <si>
+    <t>MAX. CENA: 100000</t>
+  </si>
+  <si>
+    <t>165-65-15</t>
+  </si>
+  <si>
+    <t>Letnja sezona</t>
+  </si>
+  <si>
+    <t>LETNJA</t>
+  </si>
+  <si>
+    <t>Letnja i zimska sezona</t>
+  </si>
+  <si>
+    <t>ZA SVE SEZONE</t>
+  </si>
+  <si>
+    <t>DOSTAVNO/MINIBUS VOZILO</t>
+  </si>
+  <si>
+    <t>215-70-15</t>
+  </si>
+  <si>
+    <t>205-70-16</t>
+  </si>
+  <si>
+    <t>4X4 I SUV VOZILO</t>
+  </si>
+  <si>
+    <t>MOTO GUME</t>
+  </si>
+  <si>
+    <t>AGRO</t>
+  </si>
+  <si>
+    <t>SKUTER GUME</t>
+  </si>
+  <si>
+    <t>Nije pronađen nijedan rezultat prema zadatim kriterijumima pretrage.</t>
+  </si>
+  <si>
+    <t>SI_019</t>
+  </si>
+  <si>
+    <t>SI_020</t>
+  </si>
+  <si>
+    <t>SI_021</t>
+  </si>
+  <si>
+    <t>SI_022</t>
+  </si>
+  <si>
+    <t>SI_023</t>
+  </si>
+  <si>
+    <t>SI_024</t>
+  </si>
+  <si>
+    <t>SI_025</t>
+  </si>
+  <si>
+    <t>SI_026</t>
+  </si>
+  <si>
+    <t>toastMessage</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>T (190 km/h)</t>
+  </si>
+  <si>
+    <t>actuallFiltered6</t>
+  </si>
+  <si>
+    <t>actuallFiltered7</t>
+  </si>
+  <si>
+    <t>actuallFiltered8</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>actuallFiltered9</t>
+  </si>
+  <si>
+    <t>actuallFiltered10</t>
+  </si>
+  <si>
+    <t>T (190 KM/H)</t>
   </si>
 </sst>
 </file>
@@ -511,7 +782,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -546,9 +817,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -559,6 +827,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -588,6 +859,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -904,42 +1178,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1AEBA6-E97B-44CC-BE50-33F6B24023CF}">
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:AE29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="21.85546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5703125" style="1" customWidth="1"/>
-    <col min="20" max="21" width="19.140625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="15.5703125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="15.28515625" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="11" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="39.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="25.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="16.5703125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" customWidth="1"/>
+    <col min="23" max="25" width="14.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="53.28515625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="15.5703125" style="1" customWidth="1"/>
+    <col min="28" max="29" width="19.140625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="15.5703125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="15.28515625" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -963,129 +1243,242 @@
       <c r="U1" s="25"/>
       <c r="V1" s="25"/>
       <c r="W1" s="25"/>
-    </row>
-    <row r="2" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+    </row>
+    <row r="2" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
-    </row>
-    <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-    </row>
-    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+    </row>
+    <row r="4" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="B4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="H4" s="13"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
+      <c r="O4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>163</v>
+      </c>
       <c r="U4" s="11"/>
       <c r="V4" s="11"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
+      <c r="B5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>163</v>
+      </c>
       <c r="U5" s="11"/>
       <c r="V5" s="11"/>
-    </row>
-    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+    </row>
+    <row r="6" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="B6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>164</v>
+      </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -1093,51 +1486,115 @@
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
+      <c r="O6" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>163</v>
+      </c>
       <c r="U6" s="11"/>
       <c r="V6" s="11"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+    </row>
+    <row r="7" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
+      <c r="B7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>163</v>
+      </c>
       <c r="U7" s="11"/>
       <c r="V7" s="11"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="B8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>170</v>
+      </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
@@ -1145,25 +1602,57 @@
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
+      <c r="O8" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>163</v>
+      </c>
       <c r="U8" s="11"/>
       <c r="V8" s="11"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="B9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>170</v>
+      </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
@@ -1171,25 +1660,57 @@
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
+      <c r="O9" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>163</v>
+      </c>
       <c r="U9" s="11"/>
       <c r="V9" s="11"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -1197,25 +1718,55 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
+      <c r="O10" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>163</v>
+      </c>
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -1223,25 +1774,57 @@
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
+      <c r="O11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="S11" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="T11" s="11" t="s">
+        <v>163</v>
+      </c>
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
@@ -1249,24 +1832,54 @@
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
+      <c r="O12" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="R12" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="S12" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="T12" s="11" t="s">
+        <v>163</v>
+      </c>
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>165</v>
+      </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -1275,24 +1888,52 @@
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
+      <c r="O13" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P13" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q13" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="S13" s="11" t="s">
+        <v>163</v>
+      </c>
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
       <c r="V13" s="11"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>165</v>
+      </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
@@ -1301,24 +1942,50 @@
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
+      <c r="O14" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="P14" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q14" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="S14" s="11" t="s">
+        <v>163</v>
+      </c>
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>165</v>
+      </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -1327,33 +1994,63 @@
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
+      <c r="O15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="S15" s="11" t="s">
+        <v>163</v>
+      </c>
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>108</v>
+      </c>
       <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
@@ -1361,16 +2058,36 @@
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
@@ -1379,24 +2096,46 @@
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
+      <c r="O17" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>108</v>
+      </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -1405,20 +2144,506 @@
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
+      <c r="O18" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="32"/>
+      <c r="E20" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="32"/>
+      <c r="E21" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q22" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="R22" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="S22" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="T22" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="U22" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="V22" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="W22" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="X22" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y22" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="32"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="32"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="32"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="32"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="32"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="32"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:AE1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1427,54 +2652,114 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD393A5-6731-4B8E-BE1C-8BAF208C9B9B}">
-  <dimension ref="A1:AM20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5958D898-B9EF-437C-A5A1-59F8D9D590F7}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AL1"/>
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="93.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD393A5-6731-4B8E-BE1C-8BAF208C9B9B}">
+  <dimension ref="A1:AQ20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="17.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="20.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="36.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="1" customWidth="1"/>
     <col min="14" max="14" width="10.5703125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="22.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.28515625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="17.5703125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="23.28515625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="15.85546875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="21" style="1" customWidth="1"/>
-    <col min="22" max="22" width="24" style="1" customWidth="1"/>
-    <col min="23" max="23" width="20" style="1" customWidth="1"/>
-    <col min="24" max="25" width="17.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="23.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="22.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="19.28515625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="17.5703125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="23.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="15.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="21" style="1" customWidth="1"/>
     <col min="26" max="26" width="24" style="1" customWidth="1"/>
-    <col min="27" max="28" width="21.5703125" style="1" customWidth="1"/>
-    <col min="29" max="30" width="19.140625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="19.42578125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="19.5703125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="20" style="1" customWidth="1"/>
+    <col min="28" max="29" width="17.42578125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="24" style="1" customWidth="1"/>
+    <col min="31" max="32" width="21.5703125" style="1" customWidth="1"/>
     <col min="33" max="34" width="19.140625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="17" style="1" customWidth="1"/>
-    <col min="36" max="37" width="15.7109375" style="1" customWidth="1"/>
-    <col min="38" max="38" width="14.42578125" style="1" customWidth="1"/>
-    <col min="39" max="16384" width="9.140625" style="1"/>
+    <col min="35" max="35" width="19.42578125" style="1" customWidth="1"/>
+    <col min="36" max="36" width="19.5703125" style="1" customWidth="1"/>
+    <col min="37" max="38" width="19.140625" style="1" customWidth="1"/>
+    <col min="39" max="39" width="17" style="1" customWidth="1"/>
+    <col min="40" max="41" width="15.7109375" style="1" customWidth="1"/>
+    <col min="42" max="42" width="14.42578125" style="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -1513,139 +2798,104 @@
       <c r="AJ1" s="27"/>
       <c r="AK1" s="27"/>
       <c r="AL1" s="27"/>
-    </row>
-    <row r="2" spans="1:38" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+    </row>
+    <row r="2" spans="1:42" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
-    </row>
-    <row r="3" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="23"/>
+    </row>
+    <row r="3" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>73</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H3" s="7"/>
       <c r="I3" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>75</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="J3" s="7"/>
       <c r="K3" s="7" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="U3" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="X3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF3" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL3" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="7"/>
+      <c r="AP3" s="7"/>
+    </row>
+    <row r="4" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>95</v>
+      </c>
       <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
@@ -1675,40 +2925,56 @@
       <c r="AJ4" s="11"/>
       <c r="AK4" s="11"/>
       <c r="AL4" s="11"/>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="11"/>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="11" t="s">
+        <v>85</v>
+      </c>
       <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>95</v>
+      </c>
       <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
       <c r="S5" s="15"/>
       <c r="T5" s="15"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
       <c r="Y5" s="11"/>
-      <c r="Z5" s="15"/>
+      <c r="Z5" s="11"/>
       <c r="AA5" s="11"/>
       <c r="AB5" s="11"/>
       <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
+      <c r="AD5" s="15"/>
       <c r="AE5" s="11"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
@@ -1717,82 +2983,114 @@
       <c r="AJ5" s="11"/>
       <c r="AK5" s="11"/>
       <c r="AL5" s="11"/>
-    </row>
-    <row r="6" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="11"/>
+      <c r="AP5" s="11"/>
+    </row>
+    <row r="6" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>95</v>
+      </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="I6" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="J6" s="11"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
       <c r="N6" s="11"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="11"/>
       <c r="S6" s="15"/>
       <c r="T6" s="15"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="11"/>
       <c r="Z6" s="11"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
       <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
+      <c r="AD6" s="11"/>
       <c r="AE6" s="15"/>
       <c r="AF6" s="15"/>
       <c r="AG6" s="15"/>
       <c r="AH6" s="15"/>
-      <c r="AI6" s="11"/>
-      <c r="AJ6" s="11"/>
-      <c r="AK6" s="11"/>
-      <c r="AL6" s="11"/>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="11"/>
+      <c r="AP6" s="11"/>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="11"/>
+      <c r="B7" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>95</v>
+      </c>
       <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="I7" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="J7" s="11"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
       <c r="S7" s="15"/>
       <c r="T7" s="15"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
       <c r="Y7" s="11"/>
-      <c r="Z7" s="15"/>
+      <c r="Z7" s="11"/>
       <c r="AA7" s="11"/>
       <c r="AB7" s="11"/>
       <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
+      <c r="AD7" s="15"/>
       <c r="AE7" s="11"/>
       <c r="AF7" s="11"/>
       <c r="AG7" s="11"/>
@@ -1801,37 +3099,55 @@
       <c r="AJ7" s="11"/>
       <c r="AK7" s="11"/>
       <c r="AL7" s="11"/>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="11"/>
+      <c r="AP7" s="11"/>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="11"/>
+      <c r="B8" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="15"/>
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
+      <c r="Q8" s="11"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
-      <c r="U8" s="11"/>
+      <c r="U8" s="15"/>
       <c r="V8" s="15"/>
-      <c r="W8" s="11"/>
+      <c r="W8" s="15"/>
       <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
+      <c r="Y8" s="11"/>
       <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
+      <c r="AA8" s="11"/>
       <c r="AB8" s="15"/>
       <c r="AC8" s="15"/>
       <c r="AD8" s="15"/>
@@ -1839,83 +3155,119 @@
       <c r="AF8" s="15"/>
       <c r="AG8" s="15"/>
       <c r="AH8" s="15"/>
-      <c r="AI8" s="11"/>
-      <c r="AJ8" s="11"/>
-      <c r="AK8" s="11"/>
-      <c r="AL8" s="11"/>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AI8" s="15"/>
+      <c r="AJ8" s="15"/>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="15"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="11"/>
+      <c r="AO8" s="11"/>
+      <c r="AP8" s="11"/>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="11"/>
+      <c r="B9" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>95</v>
+      </c>
       <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="I9" s="11" t="s">
+        <v>92</v>
+      </c>
       <c r="J9" s="11"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
       <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
       <c r="T9" s="15"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
       <c r="W9" s="15"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="11"/>
       <c r="Z9" s="11"/>
       <c r="AA9" s="15"/>
       <c r="AB9" s="11"/>
       <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
+      <c r="AD9" s="11"/>
       <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
+      <c r="AF9" s="11"/>
       <c r="AG9" s="15"/>
       <c r="AH9" s="15"/>
       <c r="AI9" s="15"/>
-      <c r="AJ9" s="11"/>
-      <c r="AK9" s="11"/>
-      <c r="AL9" s="11"/>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="15"/>
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="11"/>
+      <c r="AP9" s="11"/>
+    </row>
+    <row r="10" spans="1:42" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>95</v>
+      </c>
       <c r="H10" s="11"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="11"/>
+      <c r="I10" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
+      <c r="R10" s="11"/>
       <c r="S10" s="15"/>
       <c r="T10" s="15"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="11"/>
       <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
+      <c r="AA10" s="11"/>
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
       <c r="AD10" s="6"/>
@@ -1923,38 +3275,54 @@
       <c r="AF10" s="6"/>
       <c r="AG10" s="6"/>
       <c r="AH10" s="6"/>
-      <c r="AI10" s="11"/>
-      <c r="AJ10" s="11"/>
-      <c r="AK10" s="11"/>
-      <c r="AL10" s="11"/>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="11"/>
+      <c r="AP10" s="11"/>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
       <c r="T11" s="15"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
@@ -1965,38 +3333,42 @@
       <c r="AF11" s="6"/>
       <c r="AG11" s="6"/>
       <c r="AH11" s="6"/>
-      <c r="AI11" s="11"/>
-      <c r="AJ11" s="11"/>
-      <c r="AK11" s="11"/>
-      <c r="AL11" s="11"/>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="11"/>
+      <c r="AO11" s="11"/>
+      <c r="AP11" s="11"/>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="15"/>
       <c r="R12" s="15"/>
       <c r="S12" s="15"/>
       <c r="T12" s="15"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
@@ -2007,38 +3379,42 @@
       <c r="AF12" s="6"/>
       <c r="AG12" s="6"/>
       <c r="AH12" s="6"/>
-      <c r="AI12" s="11"/>
-      <c r="AJ12" s="11"/>
-      <c r="AK12" s="11"/>
-      <c r="AL12" s="11"/>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="11"/>
+      <c r="AP12" s="11"/>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
+        <v>13</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
       <c r="R13" s="15"/>
       <c r="S13" s="15"/>
       <c r="T13" s="15"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
@@ -2049,38 +3425,42 @@
       <c r="AF13" s="6"/>
       <c r="AG13" s="6"/>
       <c r="AH13" s="6"/>
-      <c r="AI13" s="11"/>
-      <c r="AJ13" s="11"/>
-      <c r="AK13" s="11"/>
-      <c r="AL13" s="11"/>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="11"/>
+      <c r="AO13" s="11"/>
+      <c r="AP13" s="11"/>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
+        <v>14</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
       <c r="R14" s="15"/>
       <c r="S14" s="15"/>
       <c r="T14" s="15"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
@@ -2091,80 +3471,88 @@
       <c r="AF14" s="6"/>
       <c r="AG14" s="6"/>
       <c r="AH14" s="6"/>
-      <c r="AI14" s="11"/>
-      <c r="AJ14" s="11"/>
-      <c r="AK14" s="11"/>
-      <c r="AL14" s="11"/>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="11"/>
+      <c r="AN14" s="11"/>
+      <c r="AO14" s="11"/>
+      <c r="AP14" s="11"/>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
+        <v>15</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
       <c r="R15" s="15"/>
       <c r="S15" s="15"/>
       <c r="T15" s="15"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
-      <c r="AC15" s="19"/>
-      <c r="AD15" s="19"/>
-      <c r="AE15" s="19"/>
-      <c r="AF15" s="19"/>
-      <c r="AG15" s="19"/>
-      <c r="AH15" s="19"/>
-      <c r="AI15" s="15"/>
-      <c r="AJ15" s="11"/>
-      <c r="AK15" s="11"/>
-      <c r="AL15" s="11"/>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="18"/>
+      <c r="AE15" s="18"/>
+      <c r="AF15" s="18"/>
+      <c r="AG15" s="18"/>
+      <c r="AH15" s="18"/>
+      <c r="AI15" s="18"/>
+      <c r="AJ15" s="18"/>
+      <c r="AK15" s="18"/>
+      <c r="AL15" s="18"/>
+      <c r="AM15" s="15"/>
+      <c r="AN15" s="11"/>
+      <c r="AO15" s="11"/>
+      <c r="AP15" s="11"/>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
+        <v>16</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
       <c r="Q16" s="15"/>
       <c r="R16" s="15"/>
       <c r="S16" s="15"/>
       <c r="T16" s="15"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
@@ -2175,38 +3563,42 @@
       <c r="AF16" s="6"/>
       <c r="AG16" s="6"/>
       <c r="AH16" s="6"/>
-      <c r="AI16" s="11"/>
-      <c r="AJ16" s="11"/>
-      <c r="AK16" s="11"/>
-      <c r="AL16" s="11"/>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="11"/>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
-      <c r="F17" s="17"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
+      <c r="J17" s="16"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="18"/>
       <c r="T17" s="15"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
@@ -2220,13 +3612,17 @@
       <c r="AI17" s="6"/>
       <c r="AJ17" s="6"/>
       <c r="AK17" s="6"/>
-      <c r="AL17" s="11"/>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6"/>
+      <c r="AO17" s="6"/>
+      <c r="AP17" s="11"/>
+    </row>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="B18" s="3"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -2239,16 +3635,16 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="18"/>
       <c r="T18" s="15"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
       <c r="AA18" s="6"/>
@@ -2262,22 +3658,26 @@
       <c r="AI18" s="6"/>
       <c r="AJ18" s="6"/>
       <c r="AK18" s="6"/>
-      <c r="AL18" s="11"/>
+      <c r="AL18" s="6"/>
       <c r="AM18" s="6"/>
-    </row>
-    <row r="19" spans="1:39" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="6"/>
+      <c r="AP18" s="11"/>
+      <c r="AQ18" s="6"/>
+    </row>
+    <row r="19" spans="1:43" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
-      <c r="F19" s="17"/>
+      <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
+      <c r="J19" s="16"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
@@ -2306,94 +3706,113 @@
       <c r="AJ19" s="11"/>
       <c r="AK19" s="11"/>
       <c r="AL19" s="11"/>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM19" s="11"/>
+      <c r="AN19" s="11"/>
+      <c r="AO19" s="11"/>
+      <c r="AP19" s="11"/>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
+        <v>20</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
       <c r="S20" s="15"/>
       <c r="T20" s="15"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="19"/>
-      <c r="AC20" s="19"/>
-      <c r="AD20" s="19"/>
-      <c r="AE20" s="19"/>
-      <c r="AF20" s="19"/>
-      <c r="AG20" s="19"/>
-      <c r="AH20" s="19"/>
-      <c r="AI20" s="15"/>
-      <c r="AJ20" s="11"/>
-      <c r="AK20" s="11"/>
-      <c r="AL20" s="11"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="18"/>
+      <c r="AG20" s="18"/>
+      <c r="AH20" s="18"/>
+      <c r="AI20" s="18"/>
+      <c r="AJ20" s="18"/>
+      <c r="AK20" s="18"/>
+      <c r="AL20" s="18"/>
+      <c r="AM20" s="15"/>
+      <c r="AN20" s="11"/>
+      <c r="AO20" s="11"/>
+      <c r="AP20" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:AL1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A1:AP1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A605BFD-FDFD-47E6-B86E-5AAA3E9DD62F}">
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:AH20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="21" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="24" style="1" customWidth="1"/>
-    <col min="14" max="14" width="20" style="1" customWidth="1"/>
-    <col min="15" max="16" width="17.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="24" style="1" customWidth="1"/>
-    <col min="18" max="19" width="21.5703125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="17" style="1" customWidth="1"/>
-    <col min="21" max="21" width="15.7109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" style="1" customWidth="1"/>
+    <col min="14" max="15" width="11" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="7" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="6.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8.85546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="21" style="1" customWidth="1"/>
+    <col min="24" max="24" width="24" style="1" customWidth="1"/>
+    <col min="25" max="25" width="20" style="1" customWidth="1"/>
+    <col min="26" max="27" width="17.42578125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="24" style="1" customWidth="1"/>
+    <col min="29" max="30" width="21.5703125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="17" style="1" customWidth="1"/>
+    <col min="32" max="32" width="15.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="14.42578125" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -2416,456 +3835,700 @@
       <c r="T1" s="29"/>
       <c r="U1" s="29"/>
       <c r="V1" s="29"/>
-    </row>
-    <row r="2" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-    </row>
-    <row r="3" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+    </row>
+    <row r="2" spans="1:33" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+    </row>
+    <row r="3" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="F3" s="8" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="21" t="s">
-        <v>24</v>
+        <v>5</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="W3" s="20"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+    </row>
+    <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="B4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="H4" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
+      <c r="J4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
+      <c r="N4" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
+      <c r="P4" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R4" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="B5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="11"/>
+      <c r="H5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
+      <c r="N5" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-    </row>
-    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="T5" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="U5" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="V5" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+    </row>
+    <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="11"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="11"/>
+      <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
-      <c r="L8" s="11"/>
+      <c r="L8" s="15"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="11"/>
+      <c r="N8" s="15"/>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
       <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="15"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
       <c r="S9" s="11"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T9" s="11"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="18"/>
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
       <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="11"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="11"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
@@ -2874,19 +4537,30 @@
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
       <c r="W18" s="6"/>
-    </row>
-    <row r="19" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="6"/>
+    </row>
+    <row r="19" spans="1:34" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
@@ -2904,48 +4578,70 @@
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
       <c r="T20" s="15"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A1:AG1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D05107-472F-4DD1-88F8-DE97CAF36E00}">
   <dimension ref="A1:AH21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2984,7 +4680,7 @@
   <sheetData>
     <row r="1" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -3021,32 +4717,32 @@
       <c r="AH1" s="31"/>
     </row>
     <row r="2" spans="1:34" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
+      <c r="A2" s="19"/>
     </row>
     <row r="3" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -3080,23 +4776,23 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -3131,17 +4827,17 @@
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -3176,14 +4872,14 @@
         <v>3</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -3222,13 +4918,13 @@
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -3264,16 +4960,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -3310,16 +5006,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -3353,19 +5049,19 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -3399,7 +5095,7 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -3437,7 +5133,7 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -3475,7 +5171,7 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -3513,7 +5209,7 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -3551,7 +5247,7 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -3589,7 +5285,7 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -3610,24 +5306,24 @@
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="19"/>
-      <c r="AC16" s="19"/>
-      <c r="AD16" s="19"/>
-      <c r="AE16" s="19"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="18"/>
       <c r="AF16" s="15"/>
       <c r="AG16" s="11"/>
       <c r="AH16" s="11"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -3665,7 +5361,7 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -3703,7 +5399,7 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -3741,7 +5437,7 @@
     </row>
     <row r="20" spans="1:34" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -3779,7 +5475,7 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -3793,24 +5489,24 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="19"/>
-      <c r="Z21" s="19"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="19"/>
-      <c r="AD21" s="19"/>
-      <c r="AE21" s="19"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="18"/>
       <c r="AF21" s="15"/>
       <c r="AG21" s="11"/>
       <c r="AH21" s="11"/>

--- a/src/test/test_data/prodajaguma.xlsx
+++ b/src/test/test_data/prodajaguma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\QAprojekti\Automation_projekti\Internet_ProdajaGuma\src\test\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9544FC-2327-4F9D-A115-6E081818FB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D352FF-8681-4477-8B4E-5DCA313CD71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4350" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{47DA7BBC-4371-411F-99D1-AFF8C5BF69E2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="204">
   <si>
     <t>tc_id</t>
   </si>
@@ -620,6 +620,31 @@
   </si>
   <si>
     <t>T (190 KM/H)</t>
+  </si>
+  <si>
+    <t>numberOfTires</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>A6(max 30 km/h)</t>
+  </si>
+  <si>
+    <t>numItems</t>
+  </si>
+  <si>
+    <t>A6(MAX 30 KM/H)</t>
+  </si>
+  <si>
+    <t>Pokušavate da poručite više nego što ima na lageru.
+Maksimalan broj guma koje želite da poručite je</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>205-70-15</t>
   </si>
 </sst>
 </file>
@@ -831,6 +856,9 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -859,9 +887,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1181,7 +1206,7 @@
   <dimension ref="A1:AE29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,53 +1236,54 @@
     <col min="23" max="25" width="14.85546875" style="1" customWidth="1"/>
     <col min="26" max="26" width="53.28515625" style="1" customWidth="1"/>
     <col min="27" max="27" width="15.5703125" style="1" customWidth="1"/>
-    <col min="28" max="29" width="19.140625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="19.140625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="24.5703125" style="1" customWidth="1"/>
     <col min="30" max="30" width="15.5703125" style="1" customWidth="1"/>
     <col min="31" max="31" width="15.28515625" style="1" customWidth="1"/>
     <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
     </row>
     <row r="2" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1338,10 +1364,18 @@
       <c r="Z3" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
+      <c r="AA3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1393,11 +1427,14 @@
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
       <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
       <c r="AA4" s="11"/>
       <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
+      <c r="AC4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD4" s="11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -1429,7 +1466,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="3" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="P5" s="11" t="s">
         <v>160</v>
@@ -1457,7 +1494,7 @@
       <c r="AC5" s="11"/>
       <c r="AD5" s="11"/>
     </row>
-    <row r="6" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1480,7 +1517,9 @@
         <v>164</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="I6" s="11" t="s">
+        <v>159</v>
+      </c>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
@@ -1504,16 +1543,26 @@
       <c r="T6" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="U6" s="11"/>
+      <c r="U6" s="11" t="s">
+        <v>159</v>
+      </c>
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
+      <c r="Z6" s="11" t="s">
+        <v>201</v>
+      </c>
       <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
+      <c r="AB6" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD6" s="11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -1684,7 +1733,9 @@
       <c r="X9" s="11"/>
       <c r="Y9" s="11"/>
       <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
+      <c r="AA9" s="11" t="s">
+        <v>197</v>
+      </c>
       <c r="AB9" s="11"/>
       <c r="AC9" s="11"/>
       <c r="AD9" s="11"/>
@@ -1856,8 +1907,12 @@
       <c r="X12" s="11"/>
       <c r="Y12" s="11"/>
       <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
+      <c r="AA12" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB12" s="11" t="s">
+        <v>197</v>
+      </c>
       <c r="AC12" s="11"/>
       <c r="AD12" s="11"/>
     </row>
@@ -1991,7 +2046,9 @@
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
+      <c r="L15" s="11" t="s">
+        <v>198</v>
+      </c>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="3" t="s">
@@ -2009,7 +2066,9 @@
       <c r="S15" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="T15" s="11"/>
+      <c r="T15" s="11" t="s">
+        <v>200</v>
+      </c>
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
       <c r="W15" s="11"/>
@@ -2176,7 +2235,7 @@
       <c r="C19" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D19" s="32"/>
+      <c r="D19" s="22"/>
       <c r="E19" s="10" t="s">
         <v>153</v>
       </c>
@@ -2191,7 +2250,9 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
+      <c r="O19" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
@@ -2220,7 +2281,7 @@
       <c r="C20" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D20" s="32"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="10" t="s">
         <v>107</v>
       </c>
@@ -2264,7 +2325,7 @@
       <c r="C21" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="32"/>
+      <c r="D21" s="22"/>
       <c r="E21" s="10" t="s">
         <v>107</v>
       </c>
@@ -2382,35 +2443,59 @@
         <v>94</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
+        <v>120</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q23" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="R23" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="S23" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="T23" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB23" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -2422,7 +2507,7 @@
       <c r="C24" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D24" s="32"/>
+      <c r="D24" s="22"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -2460,7 +2545,7 @@
       <c r="C25" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D25" s="32"/>
+      <c r="D25" s="22"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -2498,7 +2583,7 @@
       <c r="C26" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="32"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -2536,7 +2621,7 @@
       <c r="C27" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="32"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -2574,7 +2659,7 @@
       <c r="C28" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D28" s="32"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -2612,7 +2697,7 @@
       <c r="C29" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D29" s="32"/>
+      <c r="D29" s="22"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -2758,55 +2843,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="28"/>
     </row>
     <row r="2" spans="1:42" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
     </row>
     <row r="3" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -3811,41 +3896,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
     </row>
     <row r="2" spans="1:33" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
@@ -4641,7 +4726,7 @@
   <dimension ref="A1:AH21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4679,42 +4764,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
     </row>
     <row r="2" spans="1:34" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>

--- a/src/test/test_data/prodajaguma.xlsx
+++ b/src/test/test_data/prodajaguma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\QAprojekti\Automation_projekti\Internet_ProdajaGuma\src\test\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D352FF-8681-4477-8B4E-5DCA313CD71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0D841B-EBA5-4F2B-AA25-894BCA8084D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4350" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{47DA7BBC-4371-411F-99D1-AFF8C5BF69E2}"/>
+    <workbookView xWindow="-4350" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{47DA7BBC-4371-411F-99D1-AFF8C5BF69E2}"/>
   </bookViews>
   <sheets>
     <sheet name="gume" sheetId="1" r:id="rId1"/>
@@ -1205,7 +1205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1AEBA6-E97B-44CC-BE50-33F6B24023CF}">
   <dimension ref="A1:AE29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -4725,8 +4725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D05107-472F-4DD1-88F8-DE97CAF36E00}">
   <dimension ref="A1:AH21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/test_data/prodajaguma.xlsx
+++ b/src/test/test_data/prodajaguma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\QAprojekti\Automation_projekti\Internet_ProdajaGuma\src\test\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0D841B-EBA5-4F2B-AA25-894BCA8084D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8486BB43-302F-4147-BE95-0F149B18D096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4350" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{47DA7BBC-4371-411F-99D1-AFF8C5BF69E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{47DA7BBC-4371-411F-99D1-AFF8C5BF69E2}"/>
   </bookViews>
   <sheets>
     <sheet name="gume" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="206">
   <si>
     <t>tc_id</t>
   </si>
@@ -645,6 +645,12 @@
   </si>
   <si>
     <t>205-70-15</t>
+  </si>
+  <si>
+    <t>MIN. CENA: 4900</t>
+  </si>
+  <si>
+    <t>MAX. CENA: 35750</t>
   </si>
 </sst>
 </file>
@@ -1205,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1AEBA6-E97B-44CC-BE50-33F6B24023CF}">
   <dimension ref="A1:AE29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,10 +1484,10 @@
         <v>164</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="U5" s="11"/>
       <c r="V5" s="11"/>
@@ -1538,10 +1544,10 @@
         <v>164</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="U6" s="11" t="s">
         <v>159</v>
@@ -2409,10 +2415,10 @@
         <v>164</v>
       </c>
       <c r="S22" s="11" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="U22" s="11" t="s">
         <v>159</v>
@@ -4725,7 +4731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D05107-472F-4DD1-88F8-DE97CAF36E00}">
   <dimension ref="A1:AH21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
